--- a/templates/ведомость_курсанты_сверка.xlsx
+++ b/templates/ведомость_курсанты_сверка.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="EmptyRows">Сводная!$A$11</definedName>
+    <definedName name="OCRCode">Сводная!$A$3</definedName>
     <definedName name="RegisterDate">Сводная!$A$17</definedName>
     <definedName name="SoldierList">Сводная!$A$10</definedName>
     <definedName name="ЗКВ">Сводная!$A$5</definedName>
@@ -511,7 +512,7 @@
   <dimension ref="A1:Q961"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/ведомость_курсанты_сверка.xlsx
+++ b/templates/ведомость_курсанты_сверка.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pronko\prj\Grader\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YUKI\3_Вирусы\Pronko_2\prj\Grader\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:Q961"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7309,6 +7309,7 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
